--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_8.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_8.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01566219329833984</v>
+        <v>0.0006120204925537109</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007150173187255859</v>
+        <v>0.000492095947265625</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00130772590637207</v>
+        <v>0.001390933990478516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (0, 1), (1, 1)]</t>
+          <t>[[2, 0], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[(1, 1), (2, 1), (1, 0), (1, 2), (0, 1), (2, 0), (2, 2), (0, 0)]</t>
+          <t>[[1, 1], [2, 1], [1, 0], [1, 2], [0, 1], [2, 0], [2, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -1065,110 +1065,120 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>0.9996462423576147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02452301979064941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.008107900619506836</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_8.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_8.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006120204925537109</v>
+        <v>0.0002570152282714844</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000492095947265625</v>
+        <v>0.0001327991485595703</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001390933990478516</v>
+        <v>0.006514072418212891</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.008107900619506836</v>
+        <v>0.0122218132019043</v>
       </c>
     </row>
     <row r="91">
